--- a/src/test/resources/data.xlsx
+++ b/src/test/resources/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19890" windowHeight="7020"/>
+    <workbookView windowWidth="20490" windowHeight="7020"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="51">
   <si>
     <t>key</t>
   </si>
@@ -38,34 +38,31 @@
     <t>BaseUrl</t>
   </si>
   <si>
-    <t>apiKey</t>
-  </si>
-  <si>
-    <t>siteKey</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>endpoint</t>
+    <t>autosuggest query</t>
+  </si>
+  <si>
+    <t>autosuggestEndpoint</t>
   </si>
   <si>
     <t>query</t>
   </si>
   <si>
+    <t>search query</t>
+  </si>
+  <si>
+    <t>searchEndpoint</t>
+  </si>
+  <si>
+    <t>searchUrl</t>
+  </si>
+  <si>
     <t>shoppersstop</t>
   </si>
   <si>
     <t>https://www.shoppersstop.com/</t>
   </si>
   <si>
-    <t>https://search.unbxd.io/</t>
-  </si>
-  <si>
-    <t>579c6c9e792e43e038e7f40ca11b6103/</t>
-  </si>
-  <si>
-    <t>ss-unbxd-aapac-shoppersstop-dev50901709028198/</t>
+    <t>https://search.unbxd.io/579c6c9e792e43e038e7f40ca11b6103/ss-unbxd-aapac-shoppersstop-dev50901709028198/</t>
   </si>
   <si>
     <t>autosuggest?q=</t>
@@ -77,16 +74,16 @@
     <t>dress</t>
   </si>
   <si>
+    <t>search?q=</t>
+  </si>
+  <si>
     <t>footlocker</t>
   </si>
   <si>
-    <t>https://www.footlocker.sg/</t>
-  </si>
-  <si>
-    <t>7018997f7a60dcb95e1eec824707326b/</t>
-  </si>
-  <si>
-    <t>ss-unbxd-aapac-prod-mapactive-en-SG65121748367149/</t>
+    <t>https://www.footlocker.my/</t>
+  </si>
+  <si>
+    <t>https://search.unbxd.io/7018997f7a60dcb95e1eec824707326b/ss-unbxd-aapac-prod-mapactive-en-SG65121748367149/</t>
   </si>
   <si>
     <t>&amp;inFields.count=0&amp;topQueries.count=4&amp;keywordSuggestions.count=4&amp;popularProducts.count=4&amp;promotedSuggestion.count=5&amp;indent=off&amp;popularProducts.fields=doctype,imageUrl,title,doctype,autosuggest,price,imageUrl,productUrl,autosuggest</t>
@@ -101,28 +98,28 @@
     <t>https://www.mwave.com.au/</t>
   </si>
   <si>
-    <t>0de1e06bc0d3f62b42fb175e361758af/</t>
-  </si>
-  <si>
-    <t>ss-unbxd-prod-mwave43601693203163/</t>
-  </si>
-  <si>
-    <t>&amp;topQueries.count=4&amp;keywordSuggestions.count=8&amp;promotedSuggestion.count=2&amp;popularProducts.count=8</t>
+    <t>https://search.unbxd.io/0de1e06bc0d3f62b42fb175e361758af/ss-unbxd-prod-mwave43601693203163/</t>
+  </si>
+  <si>
+    <t>&amp;topQueries.count=4&amp;keywordSuggestions.count=8&amp;promotedSuggestion.count=2&amp;popularProducts.count=6</t>
   </si>
   <si>
     <t>mouse</t>
   </si>
   <si>
+    <t>&amp;rows=40&amp;selectedfacet=true&amp;start=0&amp;uid=uid-1749015819370-78828&amp;user-type=first-time&amp;version=V2&amp;facet.multiselect=true</t>
+  </si>
+  <si>
+    <t>searchresult?w=</t>
+  </si>
+  <si>
     <t>durian</t>
   </si>
   <si>
     <t>https://www.durian.in/</t>
   </si>
   <si>
-    <t>43a7c1955241b3c05198d691468d896b/</t>
-  </si>
-  <si>
-    <t>ss-unbxd-prod-Durian27261637909420/</t>
+    <t>https://search.unbxd.io/43a7c1955241b3c05198d691468d896b/ss-unbxd-prod-Durian27261637909420/</t>
   </si>
   <si>
     <t>&amp;version=V2&amp;inFields.count=0&amp;popularProducts.count=10&amp;keywordSuggestions.count=10&amp;topQueries.count=10&amp;promotedSuggestion.count=3</t>
@@ -137,10 +134,7 @@
     <t>https://www.saco.sa/en/</t>
   </si>
   <si>
-    <t>00d5920e736d73f03489a3d9d9796ed9/</t>
-  </si>
-  <si>
-    <t>ss-unbxd-auk-prod-saco-en51571710086873/</t>
+    <t>https://search.unbxd.io/00d5920e736d73f03489a3d9d9796ed9/ss-unbxd-auk-prod-saco-en51571710086873/</t>
   </si>
   <si>
     <t>washing machine</t>
@@ -152,10 +146,7 @@
     <t>https://www.truworths.co.za/</t>
   </si>
   <si>
-    <t>b645ebb439dc3ef2a2a3768d13ef34d4/</t>
-  </si>
-  <si>
-    <t>ss-unbxd-auk-prod2-truworths58431741769645/</t>
+    <t>https://search.unbxd.io/b645ebb439dc3ef2a2a3768d13ef34d4/ss-unbxd-auk-prod2-truworths58431741769645/</t>
   </si>
   <si>
     <t>jacket</t>
@@ -167,16 +158,28 @@
     <t>https://www.kpnfresh.com/search</t>
   </si>
   <si>
-    <t>95658b24680dbbd8420b398ff3eb26ef/</t>
-  </si>
-  <si>
-    <t>ss-unbxd-aapac-prod-KpnFresh65401747048177/</t>
-  </si>
-  <si>
-    <t>?q=&amp;page=1&amp;rows=5&amp;popularProducts.count=5&amp;variant.count=0</t>
+    <t>https://search.unbxd.io/95658b24680dbbd8420b398ff3eb26ef/ss-unbxd-aapac-prod-KpnFresh65401747048177/</t>
+  </si>
+  <si>
+    <t>&amp;page=1&amp;rows=5&amp;popularProducts.count=5&amp;variant.count=0</t>
   </si>
   <si>
     <t>banana</t>
+  </si>
+  <si>
+    <t>unique-vintage</t>
+  </si>
+  <si>
+    <t>https://www.unique-vintage.com/</t>
+  </si>
+  <si>
+    <t>https://search.unbxd.io/de171e93e18f254ee90dc9ac6e26070b/ss-unbxd-gus-Prod-UniqueVintage36331749185404/</t>
+  </si>
+  <si>
+    <t>&amp;facet.multiselect=true&amp;variants=true&amp;variants.fields=variantId&amp;variants.count=1&amp;fields=title,uniqueId,price,imageUrl,productUrl,images,compareAtPrice,handle,tags&amp;spellcheck=true&amp;rows=48&amp;start=0&amp;version=V2&amp;facet.version=V2</t>
+  </si>
+  <si>
+    <t>collections/shop?q=</t>
   </si>
 </sst>
 </file>
@@ -206,18 +209,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -660,28 +663,28 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -805,14 +808,16 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1288,24 +1293,24 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6285714285714" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="7" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="12.6285714285714" defaultRowHeight="36" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
     <col min="2" max="2" width="32.8571428571429" customWidth="1"/>
-    <col min="3" max="3" width="21.2857142857143" customWidth="1"/>
-    <col min="4" max="4" width="36" customWidth="1"/>
-    <col min="5" max="5" width="47.4285714285714" customWidth="1"/>
-    <col min="6" max="6" width="19.7142857142857" customWidth="1"/>
-    <col min="7" max="7" width="34.8571428571429" customWidth="1"/>
+    <col min="3" max="3" width="73.7142857142857" customWidth="1"/>
+    <col min="4" max="4" width="19.7142857142857" customWidth="1"/>
+    <col min="5" max="5" width="34.8571428571429" customWidth="1"/>
+    <col min="8" max="8" width="43.1428571428571" customWidth="1"/>
+    <col min="9" max="9" width="19.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:8">
+    <row r="1" customHeight="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1324,207 +1329,224 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" customHeight="1" spans="1:8">
-      <c r="A2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    <row r="2" customHeight="1" spans="1:7">
+      <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="G2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" customHeight="1" spans="1:8">
-      <c r="A3" s="2" t="s">
+    <row r="3" customHeight="1" spans="1:7">
+      <c r="A3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="D3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:9">
+      <c r="A4" s="3" t="s">
         <v>21</v>
       </c>
+      <c r="B4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="4" customHeight="1" spans="1:8">
-      <c r="A4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>27</v>
+    <row r="5" customHeight="1" spans="1:7">
+      <c r="A5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="1:8">
-      <c r="A5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H5" s="2" t="s">
+    <row r="6" customHeight="1" spans="1:7">
+      <c r="A6" s="3" t="s">
         <v>33</v>
       </c>
+      <c r="B6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="6" customHeight="1" spans="1:8">
-      <c r="A6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="2" t="s">
+    <row r="7" customHeight="1" spans="1:7">
+      <c r="A7" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>38</v>
       </c>
+      <c r="C7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="7" customHeight="1" spans="1:8">
-      <c r="A7" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="2" t="s">
+    <row r="8" customHeight="1" spans="1:7">
+      <c r="A8" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>43</v>
       </c>
+      <c r="D8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="8" customHeight="1" spans="1:8">
-      <c r="A8" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="2" t="s">
+    <row r="9" customHeight="1" spans="1:9">
+      <c r="A9" t="s">
         <v>46</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="B9" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="2" t="s">
+      <c r="C9" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="D9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9"/>
+      <c r="F9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" t="s">
         <v>49</v>
+      </c>
+      <c r="I9" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="https://www.shoppersstop.com/" tooltip="https://www.shoppersstop.com/"/>
-    <hyperlink ref="C2" r:id="rId2" display="https://search.unbxd.io/" tooltip="https://search.unbxd.io/"/>
-    <hyperlink ref="B3" r:id="rId3" display="https://www.footlocker.sg/" tooltip="https://www.footlocker.sg/"/>
-    <hyperlink ref="C3" r:id="rId2" display="https://search.unbxd.io/" tooltip="https://search.unbxd.io/"/>
+    <hyperlink ref="B3" r:id="rId2" display="https://www.footlocker.my/" tooltip="https://www.footlocker.my/"/>
+    <hyperlink ref="C3" r:id="rId3" display="https://search.unbxd.io/7018997f7a60dcb95e1eec824707326b/ss-unbxd-aapac-prod-mapactive-en-SG65121748367149/" tooltip="https://search.unbxd.io/7018997f7a60dcb95e1eec824707326b/ss-unbxd-aapac-prod-mapactive-en-SG65121748367149/"/>
     <hyperlink ref="B4" r:id="rId4" display="https://www.mwave.com.au/" tooltip="https://www.mwave.com.au/"/>
-    <hyperlink ref="C4" r:id="rId2" display="https://search.unbxd.io/" tooltip="https://search.unbxd.io/"/>
-    <hyperlink ref="B5" r:id="rId5" display="https://www.durian.in/" tooltip="https://www.durian.in/"/>
-    <hyperlink ref="C5" r:id="rId2" display="https://search.unbxd.io/" tooltip="https://search.unbxd.io/"/>
-    <hyperlink ref="B6" r:id="rId6" display="https://www.saco.sa/en/" tooltip="https://www.saco.sa/en/"/>
-    <hyperlink ref="C6" r:id="rId2" display="https://search.unbxd.io/" tooltip="https://search.unbxd.io/"/>
-    <hyperlink ref="B7" r:id="rId7" display="https://www.truworths.co.za/" tooltip="https://www.truworths.co.za/"/>
-    <hyperlink ref="C7" r:id="rId2" display="https://search.unbxd.io/" tooltip="https://search.unbxd.io/"/>
-    <hyperlink ref="B8" r:id="rId8" display="https://www.kpnfresh.com/search" tooltip="https://www.kpnfresh.com/search"/>
-    <hyperlink ref="C8" r:id="rId2" display="https://search.unbxd.io/" tooltip="https://search.unbxd.io/"/>
+    <hyperlink ref="C4" r:id="rId5" display="https://search.unbxd.io/0de1e06bc0d3f62b42fb175e361758af/ss-unbxd-prod-mwave43601693203163/" tooltip="https://search.unbxd.io/0de1e06bc0d3f62b42fb175e361758af/ss-unbxd-prod-mwave43601693203163/"/>
+    <hyperlink ref="B5" r:id="rId6" display="https://www.durian.in/" tooltip="https://www.durian.in/"/>
+    <hyperlink ref="B6" r:id="rId7" display="https://www.saco.sa/en/" tooltip="https://www.saco.sa/en/"/>
+    <hyperlink ref="C6" r:id="rId8" display="https://search.unbxd.io/00d5920e736d73f03489a3d9d9796ed9/ss-unbxd-auk-prod-saco-en51571710086873/" tooltip="https://search.unbxd.io/00d5920e736d73f03489a3d9d9796ed9/ss-unbxd-auk-prod-saco-en51571710086873/"/>
+    <hyperlink ref="B7" r:id="rId9" display="https://www.truworths.co.za/" tooltip="https://www.truworths.co.za/"/>
+    <hyperlink ref="C7" r:id="rId10" display="https://search.unbxd.io/b645ebb439dc3ef2a2a3768d13ef34d4/ss-unbxd-auk-prod2-truworths58431741769645/" tooltip="https://search.unbxd.io/b645ebb439dc3ef2a2a3768d13ef34d4/ss-unbxd-auk-prod2-truworths58431741769645/"/>
+    <hyperlink ref="B8" r:id="rId11" display="https://www.kpnfresh.com/search" tooltip="https://www.kpnfresh.com/search"/>
+    <hyperlink ref="C2" r:id="rId12" display="https://search.unbxd.io/579c6c9e792e43e038e7f40ca11b6103/ss-unbxd-aapac-shoppersstop-dev50901709028198/" tooltip="https://search.unbxd.io/579c6c9e792e43e038e7f40ca11b6103/ss-unbxd-aapac-shoppersstop-dev50901709028198/"/>
+    <hyperlink ref="C5" r:id="rId13" display="https://search.unbxd.io/43a7c1955241b3c05198d691468d896b/ss-unbxd-prod-Durian27261637909420/" tooltip="https://search.unbxd.io/43a7c1955241b3c05198d691468d896b/ss-unbxd-prod-Durian27261637909420/"/>
+    <hyperlink ref="C8" r:id="rId14" display="https://search.unbxd.io/95658b24680dbbd8420b398ff3eb26ef/ss-unbxd-aapac-prod-KpnFresh65401747048177/" tooltip="https://search.unbxd.io/95658b24680dbbd8420b398ff3eb26ef/ss-unbxd-aapac-prod-KpnFresh65401747048177/"/>
+    <hyperlink ref="B9" r:id="rId15" display="https://www.unique-vintage.com/"/>
+    <hyperlink ref="C9" r:id="rId16" display="https://search.unbxd.io/de171e93e18f254ee90dc9ac6e26070b/ss-unbxd-gus-Prod-UniqueVintage36331749185404/"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/src/test/resources/data.xlsx
+++ b/src/test/resources/data.xlsx
@@ -1295,8 +1295,8 @@
   </sheetPr>
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E$1:E$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6285714285714" defaultRowHeight="36" customHeight="1"/>

--- a/src/test/resources/data.xlsx
+++ b/src/test/resources/data.xlsx
@@ -35,10 +35,10 @@
     <t>siteUrl</t>
   </si>
   <si>
-    <t>BaseUrl</t>
-  </si>
-  <si>
-    <t>autosuggest query</t>
+    <t>baseUrl</t>
+  </si>
+  <si>
+    <t>autosuggest</t>
   </si>
   <si>
     <t>autosuggestEndpoint</t>
@@ -47,7 +47,7 @@
     <t>query</t>
   </si>
   <si>
-    <t>search query</t>
+    <t>search</t>
   </si>
   <si>
     <t>searchEndpoint</t>
@@ -83,13 +83,13 @@
     <t>https://www.footlocker.my/</t>
   </si>
   <si>
-    <t>https://search.unbxd.io/7018997f7a60dcb95e1eec824707326b/ss-unbxd-aapac-prod-mapactive-en-SG65121748367149/</t>
+    <t>https://search.unbxd.io/6d50ad03aeb54e49824ed69599611106/ss-unbxd-aapac-prod-mapactive-en-MY65121748366945/</t>
   </si>
   <si>
     <t>&amp;inFields.count=0&amp;topQueries.count=4&amp;keywordSuggestions.count=4&amp;popularProducts.count=4&amp;promotedSuggestion.count=5&amp;indent=off&amp;popularProducts.fields=doctype,imageUrl,title,doctype,autosuggest,price,imageUrl,productUrl,autosuggest</t>
   </si>
   <si>
-    <t>jordan</t>
+    <t>puma shoes</t>
   </si>
   <si>
     <t>mwave</t>
@@ -808,13 +808,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyAlignment="1"/>
@@ -1293,10 +1294,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E$1:E$1048576"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6285714285714" defaultRowHeight="36" customHeight="1"/>
@@ -1332,208 +1333,231 @@
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:7">
-      <c r="A2" s="3" t="s">
+    <row r="2" customHeight="1" spans="1:9">
+      <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="3" t="s">
         <v>15</v>
       </c>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
     </row>
-    <row r="3" customHeight="1" spans="1:7">
-      <c r="A3" s="3" t="s">
+    <row r="3" customHeight="1" spans="1:9">
+      <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="3" t="s">
         <v>15</v>
       </c>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
     </row>
     <row r="4" customHeight="1" spans="1:9">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="1:7">
-      <c r="A5" s="3" t="s">
+    <row r="5" customHeight="1" spans="1:9">
+      <c r="A5" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="3" t="s">
         <v>15</v>
       </c>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
     </row>
-    <row r="6" customHeight="1" spans="1:7">
-      <c r="A6" s="3" t="s">
+    <row r="6" customHeight="1" spans="1:9">
+      <c r="A6" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3" t="s">
+      <c r="E6" s="4"/>
+      <c r="F6" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="3" t="s">
         <v>15</v>
       </c>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
     </row>
-    <row r="7" customHeight="1" spans="1:7">
-      <c r="A7" s="3" t="s">
+    <row r="7" customHeight="1" spans="1:9">
+      <c r="A7" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3" t="s">
+      <c r="E7" s="4"/>
+      <c r="F7" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="3" t="s">
         <v>15</v>
       </c>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
     </row>
-    <row r="8" customHeight="1" spans="1:7">
-      <c r="A8" s="3" t="s">
+    <row r="8" customHeight="1" spans="1:9">
+      <c r="A8" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="3" t="s">
         <v>15</v>
       </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
     </row>
     <row r="9" customHeight="1" spans="1:9">
-      <c r="A9" t="s">
+      <c r="A9" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E9"/>
-      <c r="F9" t="s">
+      <c r="E9" s="3"/>
+      <c r="F9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" s="3" t="s">
         <v>50</v>
       </c>
+    </row>
+    <row r="10" customHeight="1" spans="1:9">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="https://www.shoppersstop.com/" tooltip="https://www.shoppersstop.com/"/>
     <hyperlink ref="B3" r:id="rId2" display="https://www.footlocker.my/" tooltip="https://www.footlocker.my/"/>
-    <hyperlink ref="C3" r:id="rId3" display="https://search.unbxd.io/7018997f7a60dcb95e1eec824707326b/ss-unbxd-aapac-prod-mapactive-en-SG65121748367149/" tooltip="https://search.unbxd.io/7018997f7a60dcb95e1eec824707326b/ss-unbxd-aapac-prod-mapactive-en-SG65121748367149/"/>
+    <hyperlink ref="C3" r:id="rId3" display="https://search.unbxd.io/6d50ad03aeb54e49824ed69599611106/ss-unbxd-aapac-prod-mapactive-en-MY65121748366945/" tooltip="https://search.unbxd.io/6d50ad03aeb54e49824ed69599611106/ss-unbxd-aapac-prod-mapactive-en-MY65121748366945/"/>
     <hyperlink ref="B4" r:id="rId4" display="https://www.mwave.com.au/" tooltip="https://www.mwave.com.au/"/>
     <hyperlink ref="C4" r:id="rId5" display="https://search.unbxd.io/0de1e06bc0d3f62b42fb175e361758af/ss-unbxd-prod-mwave43601693203163/" tooltip="https://search.unbxd.io/0de1e06bc0d3f62b42fb175e361758af/ss-unbxd-prod-mwave43601693203163/"/>
     <hyperlink ref="B5" r:id="rId6" display="https://www.durian.in/" tooltip="https://www.durian.in/"/>

--- a/src/test/resources/data.xlsx
+++ b/src/test/resources/data.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="56">
   <si>
     <t>key</t>
   </si>
@@ -77,6 +77,9 @@
     <t>search?q=</t>
   </si>
   <si>
+    <t>search/result?q=</t>
+  </si>
+  <si>
     <t>footlocker</t>
   </si>
   <si>
@@ -89,7 +92,10 @@
     <t>&amp;inFields.count=0&amp;topQueries.count=4&amp;keywordSuggestions.count=4&amp;popularProducts.count=4&amp;promotedSuggestion.count=5&amp;indent=off&amp;popularProducts.fields=doctype,imageUrl,title,doctype,autosuggest,price,imageUrl,productUrl,autosuggest</t>
   </si>
   <si>
-    <t>puma shoes</t>
+    <t>jordan</t>
+  </si>
+  <si>
+    <t>catalogsearch/result/?q=</t>
   </si>
   <si>
     <t>mwave</t>
@@ -140,6 +146,9 @@
     <t>washing machine</t>
   </si>
   <si>
+    <t>search/</t>
+  </si>
+  <si>
     <t>truworths</t>
   </si>
   <si>
@@ -152,6 +161,9 @@
     <t>jacket</t>
   </si>
   <si>
+    <t>search?Ntt=</t>
+  </si>
+  <si>
     <t>kpnfresh</t>
   </si>
   <si>
@@ -165,6 +177,9 @@
   </si>
   <si>
     <t>banana</t>
+  </si>
+  <si>
+    <t>?q=</t>
   </si>
   <si>
     <t>unique-vintage</t>
@@ -814,10 +829,10 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1294,283 +1309,320 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6285714285714" defaultRowHeight="36" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
     <col min="2" max="2" width="32.8571428571429" customWidth="1"/>
-    <col min="3" max="3" width="73.7142857142857" customWidth="1"/>
-    <col min="4" max="4" width="19.7142857142857" customWidth="1"/>
-    <col min="5" max="5" width="34.8571428571429" customWidth="1"/>
-    <col min="8" max="8" width="43.1428571428571" customWidth="1"/>
+    <col min="3" max="3" width="45.2857142857143" customWidth="1"/>
+    <col min="4" max="4" width="39.7142857142857" customWidth="1"/>
+    <col min="5" max="5" width="18" customWidth="1"/>
+    <col min="8" max="8" width="17.7142857142857" customWidth="1"/>
     <col min="9" max="9" width="19.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:9">
+    <row r="1" customHeight="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:9">
-      <c r="A2" s="4" t="s">
+    <row r="2" customHeight="1" spans="1:10">
+      <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="3" customHeight="1" spans="1:9">
-      <c r="A3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="4" t="s">
+    <row r="3" customHeight="1" spans="1:10">
+      <c r="A3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="B3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="4" customHeight="1" spans="1:9">
-      <c r="A4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="4" t="s">
+    <row r="4" customHeight="1" spans="1:10">
+      <c r="A4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="B4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>25</v>
+      <c r="F4" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="G4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>27</v>
+      <c r="I4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="1:9">
-      <c r="A5" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="4" t="s">
+    <row r="5" customHeight="1" spans="1:10">
+      <c r="A5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="B5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>32</v>
+      <c r="F5" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="G5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
     </row>
-    <row r="6" customHeight="1" spans="1:9">
-      <c r="A6" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="4" t="s">
+    <row r="6" customHeight="1" spans="1:10">
+      <c r="A6" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="B6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4" t="s">
-        <v>36</v>
-      </c>
+      <c r="F6" s="3"/>
       <c r="G6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="7" customHeight="1" spans="1:9">
-      <c r="A7" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="4" t="s">
+    <row r="7" customHeight="1" spans="1:10">
+      <c r="A7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="F7" s="3"/>
       <c r="G7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="8" customHeight="1" spans="1:9">
-      <c r="A8" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" s="4" t="s">
+    <row r="8" customHeight="1" spans="1:10">
+      <c r="A8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>45</v>
+      <c r="F8" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="G8" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="9" customHeight="1" spans="1:9">
-      <c r="A9" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>47</v>
+    <row r="9" customHeight="1" spans="1:10">
+      <c r="A9" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="4"/>
+      <c r="G9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="H9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>50</v>
+      <c r="I9" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:9">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="https://www.shoppersstop.com/" tooltip="https://www.shoppersstop.com/"/>
-    <hyperlink ref="B3" r:id="rId2" display="https://www.footlocker.my/" tooltip="https://www.footlocker.my/"/>
-    <hyperlink ref="C3" r:id="rId3" display="https://search.unbxd.io/6d50ad03aeb54e49824ed69599611106/ss-unbxd-aapac-prod-mapactive-en-MY65121748366945/" tooltip="https://search.unbxd.io/6d50ad03aeb54e49824ed69599611106/ss-unbxd-aapac-prod-mapactive-en-MY65121748366945/"/>
-    <hyperlink ref="B4" r:id="rId4" display="https://www.mwave.com.au/" tooltip="https://www.mwave.com.au/"/>
-    <hyperlink ref="C4" r:id="rId5" display="https://search.unbxd.io/0de1e06bc0d3f62b42fb175e361758af/ss-unbxd-prod-mwave43601693203163/" tooltip="https://search.unbxd.io/0de1e06bc0d3f62b42fb175e361758af/ss-unbxd-prod-mwave43601693203163/"/>
-    <hyperlink ref="B5" r:id="rId6" display="https://www.durian.in/" tooltip="https://www.durian.in/"/>
-    <hyperlink ref="B6" r:id="rId7" display="https://www.saco.sa/en/" tooltip="https://www.saco.sa/en/"/>
-    <hyperlink ref="C6" r:id="rId8" display="https://search.unbxd.io/00d5920e736d73f03489a3d9d9796ed9/ss-unbxd-auk-prod-saco-en51571710086873/" tooltip="https://search.unbxd.io/00d5920e736d73f03489a3d9d9796ed9/ss-unbxd-auk-prod-saco-en51571710086873/"/>
-    <hyperlink ref="B7" r:id="rId9" display="https://www.truworths.co.za/" tooltip="https://www.truworths.co.za/"/>
-    <hyperlink ref="C7" r:id="rId10" display="https://search.unbxd.io/b645ebb439dc3ef2a2a3768d13ef34d4/ss-unbxd-auk-prod2-truworths58431741769645/" tooltip="https://search.unbxd.io/b645ebb439dc3ef2a2a3768d13ef34d4/ss-unbxd-auk-prod2-truworths58431741769645/"/>
-    <hyperlink ref="B8" r:id="rId11" display="https://www.kpnfresh.com/search" tooltip="https://www.kpnfresh.com/search"/>
-    <hyperlink ref="C2" r:id="rId12" display="https://search.unbxd.io/579c6c9e792e43e038e7f40ca11b6103/ss-unbxd-aapac-shoppersstop-dev50901709028198/" tooltip="https://search.unbxd.io/579c6c9e792e43e038e7f40ca11b6103/ss-unbxd-aapac-shoppersstop-dev50901709028198/"/>
-    <hyperlink ref="C5" r:id="rId13" display="https://search.unbxd.io/43a7c1955241b3c05198d691468d896b/ss-unbxd-prod-Durian27261637909420/" tooltip="https://search.unbxd.io/43a7c1955241b3c05198d691468d896b/ss-unbxd-prod-Durian27261637909420/"/>
-    <hyperlink ref="C8" r:id="rId14" display="https://search.unbxd.io/95658b24680dbbd8420b398ff3eb26ef/ss-unbxd-aapac-prod-KpnFresh65401747048177/" tooltip="https://search.unbxd.io/95658b24680dbbd8420b398ff3eb26ef/ss-unbxd-aapac-prod-KpnFresh65401747048177/"/>
-    <hyperlink ref="B9" r:id="rId15" display="https://www.unique-vintage.com/"/>
-    <hyperlink ref="C9" r:id="rId16" display="https://search.unbxd.io/de171e93e18f254ee90dc9ac6e26070b/ss-unbxd-gus-Prod-UniqueVintage36331749185404/"/>
+    <hyperlink ref="C2" r:id="rId1" display="https://www.shoppersstop.com/" tooltip="https://www.shoppersstop.com/"/>
+    <hyperlink ref="C3" r:id="rId2" display="https://www.footlocker.my/" tooltip="https://www.footlocker.my/"/>
+    <hyperlink ref="D3" r:id="rId3" display="https://search.unbxd.io/6d50ad03aeb54e49824ed69599611106/ss-unbxd-aapac-prod-mapactive-en-MY65121748366945/" tooltip="https://search.unbxd.io/6d50ad03aeb54e49824ed69599611106/ss-unbxd-aapac-prod-mapactive-en-MY65121748366945/"/>
+    <hyperlink ref="C4" r:id="rId4" display="https://www.mwave.com.au/" tooltip="https://www.mwave.com.au/"/>
+    <hyperlink ref="D4" r:id="rId5" display="https://search.unbxd.io/0de1e06bc0d3f62b42fb175e361758af/ss-unbxd-prod-mwave43601693203163/" tooltip="https://search.unbxd.io/0de1e06bc0d3f62b42fb175e361758af/ss-unbxd-prod-mwave43601693203163/"/>
+    <hyperlink ref="C5" r:id="rId6" display="https://www.durian.in/" tooltip="https://www.durian.in/"/>
+    <hyperlink ref="C6" r:id="rId7" display="https://www.saco.sa/en/" tooltip="https://www.saco.sa/en/"/>
+    <hyperlink ref="D6" r:id="rId8" display="https://search.unbxd.io/00d5920e736d73f03489a3d9d9796ed9/ss-unbxd-auk-prod-saco-en51571710086873/" tooltip="https://search.unbxd.io/00d5920e736d73f03489a3d9d9796ed9/ss-unbxd-auk-prod-saco-en51571710086873/"/>
+    <hyperlink ref="C7" r:id="rId9" display="https://www.truworths.co.za/" tooltip="https://www.truworths.co.za/"/>
+    <hyperlink ref="D7" r:id="rId10" display="https://search.unbxd.io/b645ebb439dc3ef2a2a3768d13ef34d4/ss-unbxd-auk-prod2-truworths58431741769645/" tooltip="https://search.unbxd.io/b645ebb439dc3ef2a2a3768d13ef34d4/ss-unbxd-auk-prod2-truworths58431741769645/"/>
+    <hyperlink ref="C8" r:id="rId11" display="https://www.kpnfresh.com/search" tooltip="https://www.kpnfresh.com/search"/>
+    <hyperlink ref="D2" r:id="rId12" display="https://search.unbxd.io/579c6c9e792e43e038e7f40ca11b6103/ss-unbxd-aapac-shoppersstop-dev50901709028198/" tooltip="https://search.unbxd.io/579c6c9e792e43e038e7f40ca11b6103/ss-unbxd-aapac-shoppersstop-dev50901709028198/"/>
+    <hyperlink ref="D5" r:id="rId13" display="https://search.unbxd.io/43a7c1955241b3c05198d691468d896b/ss-unbxd-prod-Durian27261637909420/" tooltip="https://search.unbxd.io/43a7c1955241b3c05198d691468d896b/ss-unbxd-prod-Durian27261637909420/"/>
+    <hyperlink ref="D8" r:id="rId14" display="https://search.unbxd.io/95658b24680dbbd8420b398ff3eb26ef/ss-unbxd-aapac-prod-KpnFresh65401747048177/" tooltip="https://search.unbxd.io/95658b24680dbbd8420b398ff3eb26ef/ss-unbxd-aapac-prod-KpnFresh65401747048177/"/>
+    <hyperlink ref="C9" r:id="rId15" display="https://www.unique-vintage.com/"/>
+    <hyperlink ref="D9" r:id="rId16" display="https://search.unbxd.io/de171e93e18f254ee90dc9ac6e26070b/ss-unbxd-gus-Prod-UniqueVintage36331749185404/"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/src/test/resources/data.xlsx
+++ b/src/test/resources/data.xlsx
@@ -1311,7 +1311,7 @@
   </sheetPr>
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>

--- a/src/test/resources/data.xlsx
+++ b/src/test/resources/data.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="59">
   <si>
     <t>key</t>
   </si>
@@ -195,6 +195,15 @@
   </si>
   <si>
     <t>collections/shop?q=</t>
+  </si>
+  <si>
+    <t>thor</t>
+  </si>
+  <si>
+    <t>https://thehouseofrare.com/search</t>
+  </si>
+  <si>
+    <t>https://search.unbxd.io/e94cac92f0f2da84ae5ca93f42a57658/ss-unbxd-aapac-prod-shopify-houseofrare58591725608684/</t>
   </si>
 </sst>
 </file>
@@ -823,17 +832,18 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1309,320 +1319,305 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6285714285714" defaultRowHeight="36" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="32.8571428571429" customWidth="1"/>
-    <col min="3" max="3" width="45.2857142857143" customWidth="1"/>
-    <col min="4" max="4" width="39.7142857142857" customWidth="1"/>
-    <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="8" max="8" width="17.7142857142857" customWidth="1"/>
-    <col min="9" max="9" width="19.7142857142857" customWidth="1"/>
+    <col min="1" max="1" width="32.8571428571429" customWidth="1"/>
+    <col min="2" max="2" width="45.2857142857143" customWidth="1"/>
+    <col min="3" max="3" width="39.7142857142857" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="7" max="7" width="17.7142857142857" customWidth="1"/>
+    <col min="8" max="8" width="19.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:10">
+    <row r="1" customHeight="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:10">
-      <c r="A2" s="3" t="s">
+    <row r="2" customHeight="1" spans="1:9">
+      <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="F2" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="G2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:9">
+      <c r="A3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:9">
+      <c r="A4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:9">
+      <c r="A5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+    </row>
+    <row r="6" customHeight="1" spans="1:9">
+      <c r="A6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:9">
+      <c r="A7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:9">
+      <c r="A8" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:9">
+      <c r="A9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="G9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" customHeight="1" spans="1:10">
-      <c r="A3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" customHeight="1" spans="1:10">
-      <c r="A4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" customHeight="1" spans="1:10">
-      <c r="A5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-    </row>
-    <row r="6" customHeight="1" spans="1:10">
-      <c r="A6" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" customHeight="1" spans="1:10">
-      <c r="A7" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" customHeight="1" spans="1:10">
-      <c r="A8" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" customHeight="1" spans="1:10">
-      <c r="A9" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I9" s="4" t="s">
+      <c r="H9" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="J9" s="4" t="s">
+      <c r="I9" s="3" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:9">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
+      <c r="A10" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3" t="s">
+        <v>50</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="https://www.shoppersstop.com/" tooltip="https://www.shoppersstop.com/"/>
-    <hyperlink ref="C3" r:id="rId2" display="https://www.footlocker.my/" tooltip="https://www.footlocker.my/"/>
-    <hyperlink ref="D3" r:id="rId3" display="https://search.unbxd.io/6d50ad03aeb54e49824ed69599611106/ss-unbxd-aapac-prod-mapactive-en-MY65121748366945/" tooltip="https://search.unbxd.io/6d50ad03aeb54e49824ed69599611106/ss-unbxd-aapac-prod-mapactive-en-MY65121748366945/"/>
-    <hyperlink ref="C4" r:id="rId4" display="https://www.mwave.com.au/" tooltip="https://www.mwave.com.au/"/>
-    <hyperlink ref="D4" r:id="rId5" display="https://search.unbxd.io/0de1e06bc0d3f62b42fb175e361758af/ss-unbxd-prod-mwave43601693203163/" tooltip="https://search.unbxd.io/0de1e06bc0d3f62b42fb175e361758af/ss-unbxd-prod-mwave43601693203163/"/>
-    <hyperlink ref="C5" r:id="rId6" display="https://www.durian.in/" tooltip="https://www.durian.in/"/>
-    <hyperlink ref="C6" r:id="rId7" display="https://www.saco.sa/en/" tooltip="https://www.saco.sa/en/"/>
-    <hyperlink ref="D6" r:id="rId8" display="https://search.unbxd.io/00d5920e736d73f03489a3d9d9796ed9/ss-unbxd-auk-prod-saco-en51571710086873/" tooltip="https://search.unbxd.io/00d5920e736d73f03489a3d9d9796ed9/ss-unbxd-auk-prod-saco-en51571710086873/"/>
-    <hyperlink ref="C7" r:id="rId9" display="https://www.truworths.co.za/" tooltip="https://www.truworths.co.za/"/>
-    <hyperlink ref="D7" r:id="rId10" display="https://search.unbxd.io/b645ebb439dc3ef2a2a3768d13ef34d4/ss-unbxd-auk-prod2-truworths58431741769645/" tooltip="https://search.unbxd.io/b645ebb439dc3ef2a2a3768d13ef34d4/ss-unbxd-auk-prod2-truworths58431741769645/"/>
-    <hyperlink ref="C8" r:id="rId11" display="https://www.kpnfresh.com/search" tooltip="https://www.kpnfresh.com/search"/>
-    <hyperlink ref="D2" r:id="rId12" display="https://search.unbxd.io/579c6c9e792e43e038e7f40ca11b6103/ss-unbxd-aapac-shoppersstop-dev50901709028198/" tooltip="https://search.unbxd.io/579c6c9e792e43e038e7f40ca11b6103/ss-unbxd-aapac-shoppersstop-dev50901709028198/"/>
-    <hyperlink ref="D5" r:id="rId13" display="https://search.unbxd.io/43a7c1955241b3c05198d691468d896b/ss-unbxd-prod-Durian27261637909420/" tooltip="https://search.unbxd.io/43a7c1955241b3c05198d691468d896b/ss-unbxd-prod-Durian27261637909420/"/>
-    <hyperlink ref="D8" r:id="rId14" display="https://search.unbxd.io/95658b24680dbbd8420b398ff3eb26ef/ss-unbxd-aapac-prod-KpnFresh65401747048177/" tooltip="https://search.unbxd.io/95658b24680dbbd8420b398ff3eb26ef/ss-unbxd-aapac-prod-KpnFresh65401747048177/"/>
-    <hyperlink ref="C9" r:id="rId15" display="https://www.unique-vintage.com/"/>
-    <hyperlink ref="D9" r:id="rId16" display="https://search.unbxd.io/de171e93e18f254ee90dc9ac6e26070b/ss-unbxd-gus-Prod-UniqueVintage36331749185404/"/>
+    <hyperlink ref="B2" r:id="rId1" display="https://www.shoppersstop.com/" tooltip="https://www.shoppersstop.com/"/>
+    <hyperlink ref="B3" r:id="rId2" display="https://www.footlocker.my/" tooltip="https://www.footlocker.my/"/>
+    <hyperlink ref="C3" r:id="rId3" display="https://search.unbxd.io/6d50ad03aeb54e49824ed69599611106/ss-unbxd-aapac-prod-mapactive-en-MY65121748366945/" tooltip="https://search.unbxd.io/6d50ad03aeb54e49824ed69599611106/ss-unbxd-aapac-prod-mapactive-en-MY65121748366945/"/>
+    <hyperlink ref="B4" r:id="rId4" display="https://www.mwave.com.au/" tooltip="https://www.mwave.com.au/"/>
+    <hyperlink ref="C4" r:id="rId5" display="https://search.unbxd.io/0de1e06bc0d3f62b42fb175e361758af/ss-unbxd-prod-mwave43601693203163/" tooltip="https://search.unbxd.io/0de1e06bc0d3f62b42fb175e361758af/ss-unbxd-prod-mwave43601693203163/"/>
+    <hyperlink ref="B5" r:id="rId6" display="https://www.durian.in/" tooltip="https://www.durian.in/"/>
+    <hyperlink ref="B6" r:id="rId7" display="https://www.saco.sa/en/" tooltip="https://www.saco.sa/en/"/>
+    <hyperlink ref="C6" r:id="rId8" display="https://search.unbxd.io/00d5920e736d73f03489a3d9d9796ed9/ss-unbxd-auk-prod-saco-en51571710086873/" tooltip="https://search.unbxd.io/00d5920e736d73f03489a3d9d9796ed9/ss-unbxd-auk-prod-saco-en51571710086873/"/>
+    <hyperlink ref="B7" r:id="rId9" display="https://www.truworths.co.za/" tooltip="https://www.truworths.co.za/"/>
+    <hyperlink ref="C7" r:id="rId10" display="https://search.unbxd.io/b645ebb439dc3ef2a2a3768d13ef34d4/ss-unbxd-auk-prod2-truworths58431741769645/" tooltip="https://search.unbxd.io/b645ebb439dc3ef2a2a3768d13ef34d4/ss-unbxd-auk-prod2-truworths58431741769645/"/>
+    <hyperlink ref="B8" r:id="rId11" display="https://www.kpnfresh.com/search" tooltip="https://www.kpnfresh.com/search"/>
+    <hyperlink ref="C2" r:id="rId12" display="https://search.unbxd.io/579c6c9e792e43e038e7f40ca11b6103/ss-unbxd-aapac-shoppersstop-dev50901709028198/" tooltip="https://search.unbxd.io/579c6c9e792e43e038e7f40ca11b6103/ss-unbxd-aapac-shoppersstop-dev50901709028198/"/>
+    <hyperlink ref="C5" r:id="rId13" display="https://search.unbxd.io/43a7c1955241b3c05198d691468d896b/ss-unbxd-prod-Durian27261637909420/" tooltip="https://search.unbxd.io/43a7c1955241b3c05198d691468d896b/ss-unbxd-prod-Durian27261637909420/"/>
+    <hyperlink ref="C8" r:id="rId14" display="https://search.unbxd.io/95658b24680dbbd8420b398ff3eb26ef/ss-unbxd-aapac-prod-KpnFresh65401747048177/" tooltip="https://search.unbxd.io/95658b24680dbbd8420b398ff3eb26ef/ss-unbxd-aapac-prod-KpnFresh65401747048177/"/>
+    <hyperlink ref="B9" r:id="rId15" display="https://www.unique-vintage.com/"/>
+    <hyperlink ref="C9" r:id="rId16" display="https://search.unbxd.io/de171e93e18f254ee90dc9ac6e26070b/ss-unbxd-gus-Prod-UniqueVintage36331749185404/"/>
+    <hyperlink ref="C10" r:id="rId17" display="https://search.unbxd.io/e94cac92f0f2da84ae5ca93f42a57658/ss-unbxd-aapac-prod-shopify-houseofrare58591725608684/"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
